--- a/data/panelapp/uk/Childhood onset dystonia or chorea or related movement disorder.xlsx
+++ b/data/panelapp/uk/Childhood onset dystonia or chorea or related movement disorder.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395440</t>
+          <t>2021-10-05 14:19:32.589727</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395452</t>
+          <t>2021-10-05 14:19:32.589734</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395456</t>
+          <t>2021-10-05 14:19:32.589737</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395459</t>
+          <t>2021-10-05 14:19:32.589739</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395462</t>
+          <t>2021-10-05 14:19:32.589741</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395465</t>
+          <t>2021-10-05 14:19:32.589744</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395467</t>
+          <t>2021-10-05 14:19:32.589746</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395470</t>
+          <t>2021-10-05 14:19:32.589748</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395473</t>
+          <t>2021-10-05 14:19:32.589750</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395476</t>
+          <t>2021-10-05 14:19:32.589752</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395479</t>
+          <t>2021-10-05 14:19:32.589754</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395482</t>
+          <t>2021-10-05 14:19:32.589756</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395484</t>
+          <t>2021-10-05 14:19:32.589758</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395487</t>
+          <t>2021-10-05 14:19:32.589760</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395490</t>
+          <t>2021-10-05 14:19:32.589763</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395493</t>
+          <t>2021-10-05 14:19:32.589765</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395496</t>
+          <t>2021-10-05 14:19:32.589767</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395499</t>
+          <t>2021-10-05 14:19:32.589769</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395502</t>
+          <t>2021-10-05 14:19:32.589772</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395504</t>
+          <t>2021-10-05 14:19:32.589774</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395507</t>
+          <t>2021-10-05 14:19:32.589776</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395510</t>
+          <t>2021-10-05 14:19:32.589778</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395513</t>
+          <t>2021-10-05 14:19:32.589780</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395515</t>
+          <t>2021-10-05 14:19:32.589782</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395518</t>
+          <t>2021-10-05 14:19:32.589785</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395521</t>
+          <t>2021-10-05 14:19:32.589787</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395525</t>
+          <t>2021-10-05 14:19:32.589789</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395527</t>
+          <t>2021-10-05 14:19:32.589791</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395530</t>
+          <t>2021-10-05 14:19:32.589793</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395533</t>
+          <t>2021-10-05 14:19:32.589795</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395536</t>
+          <t>2021-10-05 14:19:32.589797</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395539</t>
+          <t>2021-10-05 14:19:32.589799</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395542</t>
+          <t>2021-10-05 14:19:32.589802</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395545</t>
+          <t>2021-10-05 14:19:32.589804</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395547</t>
+          <t>2021-10-05 14:19:32.589806</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395550</t>
+          <t>2021-10-05 14:19:32.589808</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395553</t>
+          <t>2021-10-05 14:19:32.589810</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395556</t>
+          <t>2021-10-05 14:19:32.589812</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395559</t>
+          <t>2021-10-05 14:19:32.589814</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395562</t>
+          <t>2021-10-05 14:19:32.589816</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395565</t>
+          <t>2021-10-05 14:19:32.589819</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395568</t>
+          <t>2021-10-05 14:19:32.589821</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395571</t>
+          <t>2021-10-05 14:19:32.589823</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395573</t>
+          <t>2021-10-05 14:19:32.589825</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395576</t>
+          <t>2021-10-05 14:19:32.589828</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395579</t>
+          <t>2021-10-05 14:19:32.589830</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395582</t>
+          <t>2021-10-05 14:19:32.589832</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395584</t>
+          <t>2021-10-05 14:19:32.589834</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395588</t>
+          <t>2021-10-05 14:19:32.589836</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395590</t>
+          <t>2021-10-05 14:19:32.589838</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395593</t>
+          <t>2021-10-05 14:19:32.589840</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395596</t>
+          <t>2021-10-05 14:19:32.589842</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395599</t>
+          <t>2021-10-05 14:19:32.589845</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395602</t>
+          <t>2021-10-05 14:19:32.589847</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395605</t>
+          <t>2021-10-05 14:19:32.589849</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395607</t>
+          <t>2021-10-05 14:19:32.589851</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395610</t>
+          <t>2021-10-05 14:19:32.589853</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395613</t>
+          <t>2021-10-05 14:19:32.589855</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395616</t>
+          <t>2021-10-05 14:19:32.589857</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395619</t>
+          <t>2021-10-05 14:19:32.589859</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395621</t>
+          <t>2021-10-05 14:19:32.589862</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395624</t>
+          <t>2021-10-05 14:19:32.589864</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395627</t>
+          <t>2021-10-05 14:19:32.589866</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395630</t>
+          <t>2021-10-05 14:19:32.589868</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395634</t>
+          <t>2021-10-05 14:19:32.589871</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395637</t>
+          <t>2021-10-05 14:19:32.589873</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395639</t>
+          <t>2021-10-05 14:19:32.589876</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395642</t>
+          <t>2021-10-05 14:19:32.589878</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395645</t>
+          <t>2021-10-05 14:19:32.589880</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395648</t>
+          <t>2021-10-05 14:19:32.589882</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395651</t>
+          <t>2021-10-05 14:19:32.589884</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395654</t>
+          <t>2021-10-05 14:19:32.589886</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395656</t>
+          <t>2021-10-05 14:19:32.589888</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395659</t>
+          <t>2021-10-05 14:19:32.589891</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395662</t>
+          <t>2021-10-05 14:19:32.589893</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395664</t>
+          <t>2021-10-05 14:19:32.589895</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395669</t>
+          <t>2021-10-05 14:19:32.589899</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395672</t>
+          <t>2021-10-05 14:19:32.589902</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395675</t>
+          <t>2021-10-05 14:19:32.589904</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395678</t>
+          <t>2021-10-05 14:19:32.589906</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395681</t>
+          <t>2021-10-05 14:19:32.589908</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395684</t>
+          <t>2021-10-05 14:19:32.589910</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395686</t>
+          <t>2021-10-05 14:19:32.589912</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395689</t>
+          <t>2021-10-05 14:19:32.589914</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395692</t>
+          <t>2021-10-05 14:19:32.589916</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395694</t>
+          <t>2021-10-05 14:19:32.589919</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395697</t>
+          <t>2021-10-05 14:19:32.589921</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395700</t>
+          <t>2021-10-05 14:19:32.589923</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395703</t>
+          <t>2021-10-05 14:19:32.589925</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395705</t>
+          <t>2021-10-05 14:19:32.589927</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395708</t>
+          <t>2021-10-05 14:19:32.589929</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395711</t>
+          <t>2021-10-05 14:19:32.589931</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395715</t>
+          <t>2021-10-05 14:19:32.589935</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395718</t>
+          <t>2021-10-05 14:19:32.589937</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395720</t>
+          <t>2021-10-05 14:19:32.589939</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395723</t>
+          <t>2021-10-05 14:19:32.589941</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395726</t>
+          <t>2021-10-05 14:19:32.589944</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395729</t>
+          <t>2021-10-05 14:19:32.589946</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395731</t>
+          <t>2021-10-05 14:19:32.589948</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395734</t>
+          <t>2021-10-05 14:19:32.589950</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395737</t>
+          <t>2021-10-05 14:19:32.589952</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395740</t>
+          <t>2021-10-05 14:19:32.589954</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395742</t>
+          <t>2021-10-05 14:19:32.589956</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395745</t>
+          <t>2021-10-05 14:19:32.589959</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395748</t>
+          <t>2021-10-05 14:19:32.589961</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395750</t>
+          <t>2021-10-05 14:19:32.589963</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395753</t>
+          <t>2021-10-05 14:19:32.589965</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395756</t>
+          <t>2021-10-05 14:19:32.589967</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395761</t>
+          <t>2021-10-05 14:19:32.589971</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395764</t>
+          <t>2021-10-05 14:19:32.589974</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395766</t>
+          <t>2021-10-05 14:19:32.589976</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395769</t>
+          <t>2021-10-05 14:19:32.589978</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395772</t>
+          <t>2021-10-05 14:19:32.589981</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395774</t>
+          <t>2021-10-05 14:19:32.589983</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395777</t>
+          <t>2021-10-05 14:19:32.589985</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395780</t>
+          <t>2021-10-05 14:19:32.589987</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395782</t>
+          <t>2021-10-05 14:19:32.589989</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395785</t>
+          <t>2021-10-05 14:19:32.589991</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395788</t>
+          <t>2021-10-05 14:19:32.589993</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395790</t>
+          <t>2021-10-05 14:19:32.589995</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395793</t>
+          <t>2021-10-05 14:19:32.589997</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395796</t>
+          <t>2021-10-05 14:19:32.589999</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395799</t>
+          <t>2021-10-05 14:19:32.590001</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395801</t>
+          <t>2021-10-05 14:19:32.590003</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395804</t>
+          <t>2021-10-05 14:19:32.590006</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395807</t>
+          <t>2021-10-05 14:19:32.590008</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395810</t>
+          <t>2021-10-05 14:19:32.590010</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395813</t>
+          <t>2021-10-05 14:19:32.590012</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395817</t>
+          <t>2021-10-05 14:19:32.590016</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395821</t>
+          <t>2021-10-05 14:19:32.590019</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395823</t>
+          <t>2021-10-05 14:19:32.590021</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395826</t>
+          <t>2021-10-05 14:19:32.590023</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395829</t>
+          <t>2021-10-05 14:19:32.590026</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395832</t>
+          <t>2021-10-05 14:19:32.590028</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395834</t>
+          <t>2021-10-05 14:19:32.590030</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395837</t>
+          <t>2021-10-05 14:19:32.590032</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395840</t>
+          <t>2021-10-05 14:19:32.590034</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395842</t>
+          <t>2021-10-05 14:19:32.590036</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395845</t>
+          <t>2021-10-05 14:19:32.590039</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395848</t>
+          <t>2021-10-05 14:19:32.590041</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395851</t>
+          <t>2021-10-05 14:19:32.590043</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395854</t>
+          <t>2021-10-05 14:19:32.590045</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395856</t>
+          <t>2021-10-05 14:19:32.590047</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395859</t>
+          <t>2021-10-05 14:19:32.590049</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395862</t>
+          <t>2021-10-05 14:19:32.590051</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395865</t>
+          <t>2021-10-05 14:19:32.590053</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395867</t>
+          <t>2021-10-05 14:19:32.590055</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395870</t>
+          <t>2021-10-05 14:19:32.590058</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395873</t>
+          <t>2021-10-05 14:19:32.590060</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395876</t>
+          <t>2021-10-05 14:19:32.590063</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395879</t>
+          <t>2021-10-05 14:19:32.590065</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395881</t>
+          <t>2021-10-05 14:19:32.590067</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395884</t>
+          <t>2021-10-05 14:19:32.590069</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395887</t>
+          <t>2021-10-05 14:19:32.590071</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395890</t>
+          <t>2021-10-05 14:19:32.590073</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395893</t>
+          <t>2021-10-05 14:19:32.590076</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395895</t>
+          <t>2021-10-05 14:19:32.590078</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395898</t>
+          <t>2021-10-05 14:19:32.590080</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395901</t>
+          <t>2021-10-05 14:19:32.590082</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395903</t>
+          <t>2021-10-05 14:19:32.590084</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395906</t>
+          <t>2021-10-05 14:19:32.590086</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395909</t>
+          <t>2021-10-05 14:19:32.590089</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395911</t>
+          <t>2021-10-05 14:19:32.590091</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395914</t>
+          <t>2021-10-05 14:19:32.590093</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395917</t>
+          <t>2021-10-05 14:19:32.590095</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395920</t>
+          <t>2021-10-05 14:19:32.590097</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395922</t>
+          <t>2021-10-05 14:19:32.590099</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395925</t>
+          <t>2021-10-05 14:19:32.590101</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395928</t>
+          <t>2021-10-05 14:19:32.590103</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395931</t>
+          <t>2021-10-05 14:19:32.590105</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395934</t>
+          <t>2021-10-05 14:19:32.590108</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395937</t>
+          <t>2021-10-05 14:19:32.590110</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395941</t>
+          <t>2021-10-05 14:19:32.590113</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395944</t>
+          <t>2021-10-05 14:19:32.590115</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395947</t>
+          <t>2021-10-05 14:19:32.590118</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395949</t>
+          <t>2021-10-05 14:19:32.590120</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395952</t>
+          <t>2021-10-05 14:19:32.590122</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395955</t>
+          <t>2021-10-05 14:19:32.590125</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395958</t>
+          <t>2021-10-05 14:19:32.590127</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395961</t>
+          <t>2021-10-05 14:19:32.590129</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395963</t>
+          <t>2021-10-05 14:19:32.590131</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395966</t>
+          <t>2021-10-05 14:19:32.590133</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395969</t>
+          <t>2021-10-05 14:19:32.590135</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395972</t>
+          <t>2021-10-05 14:19:32.590137</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395974</t>
+          <t>2021-10-05 14:19:32.590139</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395977</t>
+          <t>2021-10-05 14:19:32.590141</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395980</t>
+          <t>2021-10-05 14:19:32.590144</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395982</t>
+          <t>2021-10-05 14:19:32.590146</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395985</t>
+          <t>2021-10-05 14:19:32.590148</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395988</t>
+          <t>2021-10-05 14:19:32.590150</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395991</t>
+          <t>2021-10-05 14:19:32.590152</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395993</t>
+          <t>2021-10-05 14:19:32.590154</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395996</t>
+          <t>2021-10-05 14:19:32.590156</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.395999</t>
+          <t>2021-10-05 14:19:32.590158</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396002</t>
+          <t>2021-10-05 14:19:32.590160</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396004</t>
+          <t>2021-10-05 14:19:32.590162</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396007</t>
+          <t>2021-10-05 14:19:32.590165</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396010</t>
+          <t>2021-10-05 14:19:32.590167</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396013</t>
+          <t>2021-10-05 14:19:32.590169</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396016</t>
+          <t>2021-10-05 14:19:32.590171</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396019</t>
+          <t>2021-10-05 14:19:32.590173</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396021</t>
+          <t>2021-10-05 14:19:32.590176</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396024</t>
+          <t>2021-10-05 14:19:32.590178</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396027</t>
+          <t>2021-10-05 14:19:32.590180</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396030</t>
+          <t>2021-10-05 14:19:32.590182</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396032</t>
+          <t>2021-10-05 14:19:32.590184</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396035</t>
+          <t>2021-10-05 14:19:32.590186</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396038</t>
+          <t>2021-10-05 14:19:32.590188</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396041</t>
+          <t>2021-10-05 14:19:32.590190</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396043</t>
+          <t>2021-10-05 14:19:32.590192</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396046</t>
+          <t>2021-10-05 14:19:32.590194</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396049</t>
+          <t>2021-10-05 14:19:32.590197</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396051</t>
+          <t>2021-10-05 14:19:32.590199</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396054</t>
+          <t>2021-10-05 14:19:32.590201</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396057</t>
+          <t>2021-10-05 14:19:32.590203</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396059</t>
+          <t>2021-10-05 14:19:32.590205</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396062</t>
+          <t>2021-10-05 14:19:32.590207</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396065</t>
+          <t>2021-10-05 14:19:32.590209</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396068</t>
+          <t>2021-10-05 14:19:32.590211</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396071</t>
+          <t>2021-10-05 14:19:32.590213</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396073</t>
+          <t>2021-10-05 14:19:32.590215</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396076</t>
+          <t>2021-10-05 14:19:32.590217</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396078</t>
+          <t>2021-10-05 14:19:32.590219</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396081</t>
+          <t>2021-10-05 14:19:32.590221</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396084</t>
+          <t>2021-10-05 14:19:32.590223</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396087</t>
+          <t>2021-10-05 14:19:32.590225</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396089</t>
+          <t>2021-10-05 14:19:32.590227</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396092</t>
+          <t>2021-10-05 14:19:32.590229</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396095</t>
+          <t>2021-10-05 14:19:32.590231</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396097</t>
+          <t>2021-10-05 14:19:32.590233</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396100</t>
+          <t>2021-10-05 14:19:32.590236</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396103</t>
+          <t>2021-10-05 14:19:32.590238</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396107</t>
+          <t>2021-10-05 14:19:32.590241</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396110</t>
+          <t>2021-10-05 14:19:32.590243</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396113</t>
+          <t>2021-10-05 14:19:32.590245</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396116</t>
+          <t>2021-10-05 14:19:32.590247</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396119</t>
+          <t>2021-10-05 14:19:32.590249</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396121</t>
+          <t>2021-10-05 14:19:32.590251</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396124</t>
+          <t>2021-10-05 14:19:32.590253</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396127</t>
+          <t>2021-10-05 14:19:32.590255</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396130</t>
+          <t>2021-10-05 14:19:32.590257</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396132</t>
+          <t>2021-10-05 14:19:32.590259</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396135</t>
+          <t>2021-10-05 14:19:32.590261</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396138</t>
+          <t>2021-10-05 14:19:32.590263</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396141</t>
+          <t>2021-10-05 14:19:32.590266</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396143</t>
+          <t>2021-10-05 14:19:32.590268</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396146</t>
+          <t>2021-10-05 14:19:32.590270</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396149</t>
+          <t>2021-10-05 14:19:32.590284</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396151</t>
+          <t>2021-10-05 14:19:32.590292</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396154</t>
+          <t>2021-10-05 14:19:32.590295</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396157</t>
+          <t>2021-10-05 14:19:32.590300</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396159</t>
+          <t>2021-10-05 14:19:32.590304</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396162</t>
+          <t>2021-10-05 14:19:32.590306</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396165</t>
+          <t>2021-10-05 14:19:32.590309</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396168</t>
+          <t>2021-10-05 14:19:32.590311</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396170</t>
+          <t>2021-10-05 14:19:32.590313</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396173</t>
+          <t>2021-10-05 14:19:32.590315</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396176</t>
+          <t>2021-10-05 14:19:32.590317</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396179</t>
+          <t>2021-10-05 14:19:32.590319</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396181</t>
+          <t>2021-10-05 14:19:32.590321</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396184</t>
+          <t>2021-10-05 14:19:32.590323</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396186</t>
+          <t>2021-10-05 14:19:32.590325</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396189</t>
+          <t>2021-10-05 14:19:32.590327</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396192</t>
+          <t>2021-10-05 14:19:32.590329</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396195</t>
+          <t>2021-10-05 14:19:32.590331</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396198</t>
+          <t>2021-10-05 14:19:32.590333</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396200</t>
+          <t>2021-10-05 14:19:32.590335</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396203</t>
+          <t>2021-10-05 14:19:32.590337</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396206</t>
+          <t>2021-10-05 14:19:32.590340</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396209</t>
+          <t>2021-10-05 14:19:32.590342</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396212</t>
+          <t>2021-10-05 14:19:32.590344</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396214</t>
+          <t>2021-10-05 14:19:32.590346</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396217</t>
+          <t>2021-10-05 14:19:32.590348</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396220</t>
+          <t>2021-10-05 14:19:32.590350</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396222</t>
+          <t>2021-10-05 14:19:32.590353</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396225</t>
+          <t>2021-10-05 14:19:32.590355</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396228</t>
+          <t>2021-10-05 14:19:32.590357</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396230</t>
+          <t>2021-10-05 14:19:32.590359</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396233</t>
+          <t>2021-10-05 14:19:32.590361</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396236</t>
+          <t>2021-10-05 14:19:32.590363</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396239</t>
+          <t>2021-10-05 14:19:32.590365</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396242</t>
+          <t>2021-10-05 14:19:32.590367</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396244</t>
+          <t>2021-10-05 14:19:32.590369</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396247</t>
+          <t>2021-10-05 14:19:32.590371</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396250</t>
+          <t>2021-10-05 14:19:32.590374</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396252</t>
+          <t>2021-10-05 14:19:32.590376</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396255</t>
+          <t>2021-10-05 14:19:32.590378</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396258</t>
+          <t>2021-10-05 14:19:32.590380</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396260</t>
+          <t>2021-10-05 14:19:32.590382</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396263</t>
+          <t>2021-10-05 14:19:32.590384</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396266</t>
+          <t>2021-10-05 14:19:32.590386</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396269</t>
+          <t>2021-10-05 14:19:32.590388</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396271</t>
+          <t>2021-10-05 14:19:32.590390</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396274</t>
+          <t>2021-10-05 14:19:32.590392</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396277</t>
+          <t>2021-10-05 14:19:32.590394</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396279</t>
+          <t>2021-10-05 14:19:32.590396</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396282</t>
+          <t>2021-10-05 14:19:32.590398</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396285</t>
+          <t>2021-10-05 14:19:32.590400</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396287</t>
+          <t>2021-10-05 14:19:32.590402</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396290</t>
+          <t>2021-10-05 14:19:32.590404</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396293</t>
+          <t>2021-10-05 14:19:32.590407</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396295</t>
+          <t>2021-10-05 14:19:32.590409</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396298</t>
+          <t>2021-10-05 14:19:32.590411</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396300</t>
+          <t>2021-10-05 14:19:32.590413</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396303</t>
+          <t>2021-10-05 14:19:32.590415</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396306</t>
+          <t>2021-10-05 14:19:32.590417</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396308</t>
+          <t>2021-10-05 14:19:32.590419</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396311</t>
+          <t>2021-10-05 14:19:32.590421</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396315</t>
+          <t>2021-10-05 14:19:32.590426</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396318</t>
+          <t>2021-10-05 14:19:32.590428</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396321</t>
+          <t>2021-10-05 14:19:32.590430</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396324</t>
+          <t>2021-10-05 14:19:32.590433</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396327</t>
+          <t>2021-10-05 14:19:32.590435</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396329</t>
+          <t>2021-10-05 14:19:32.590437</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396332</t>
+          <t>2021-10-05 14:19:32.590439</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396335</t>
+          <t>2021-10-05 14:19:32.590441</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396337</t>
+          <t>2021-10-05 14:19:32.590443</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396340</t>
+          <t>2021-10-05 14:19:32.590445</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396343</t>
+          <t>2021-10-05 14:19:32.590447</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396345</t>
+          <t>2021-10-05 14:19:32.590449</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396348</t>
+          <t>2021-10-05 14:19:32.590452</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396351</t>
+          <t>2021-10-05 14:19:32.590454</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396354</t>
+          <t>2021-10-05 14:19:32.590456</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396356</t>
+          <t>2021-10-05 14:19:32.590458</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396359</t>
+          <t>2021-10-05 14:19:32.590460</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396362</t>
+          <t>2021-10-05 14:19:32.590462</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396364</t>
+          <t>2021-10-05 14:19:32.590464</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396367</t>
+          <t>2021-10-05 14:19:32.590466</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396370</t>
+          <t>2021-10-05 14:19:32.590468</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396372</t>
+          <t>2021-10-05 14:19:32.590470</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396375</t>
+          <t>2021-10-05 14:19:32.590472</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396378</t>
+          <t>2021-10-05 14:19:32.590474</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396381</t>
+          <t>2021-10-05 14:19:32.590476</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396383</t>
+          <t>2021-10-05 14:19:32.590478</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396386</t>
+          <t>2021-10-05 14:19:32.590480</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396389</t>
+          <t>2021-10-05 14:19:32.590482</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396393</t>
+          <t>2021-10-05 14:19:32.590485</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396396</t>
+          <t>2021-10-05 14:19:32.590487</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396401</t>
+          <t>2021-10-05 14:19:32.590489</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396406</t>
+          <t>2021-10-05 14:19:32.590491</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396411</t>
+          <t>2021-10-05 14:19:32.590493</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396415</t>
+          <t>2021-10-05 14:19:32.590495</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396420</t>
+          <t>2021-10-05 14:19:32.590497</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396424</t>
+          <t>2021-10-05 14:19:32.590499</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396427</t>
+          <t>2021-10-05 14:19:32.590502</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396430</t>
+          <t>2021-10-05 14:19:32.590504</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396432</t>
+          <t>2021-10-05 14:19:32.590506</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396435</t>
+          <t>2021-10-05 14:19:32.590508</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396438</t>
+          <t>2021-10-05 14:19:32.590510</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396441</t>
+          <t>2021-10-05 14:19:32.590512</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396444</t>
+          <t>2021-10-05 14:19:32.590514</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396447</t>
+          <t>2021-10-05 14:19:32.590516</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396454</t>
+          <t>2021-10-05 14:19:32.590520</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396459</t>
+          <t>2021-10-05 14:19:32.590523</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396464</t>
+          <t>2021-10-05 14:19:32.590526</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396467</t>
+          <t>2021-10-05 14:19:32.590530</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396470</t>
+          <t>2021-10-05 14:19:32.590532</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396472</t>
+          <t>2021-10-05 14:19:32.590534</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396475</t>
+          <t>2021-10-05 14:19:32.590536</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396478</t>
+          <t>2021-10-05 14:19:32.590538</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396480</t>
+          <t>2021-10-05 14:19:32.590540</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396483</t>
+          <t>2021-10-05 14:19:32.590542</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396486</t>
+          <t>2021-10-05 14:19:32.590544</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396489</t>
+          <t>2021-10-05 14:19:32.590546</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396491</t>
+          <t>2021-10-05 14:19:32.590549</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396494</t>
+          <t>2021-10-05 14:19:32.590552</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396497</t>
+          <t>2021-10-05 14:19:32.590555</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396499</t>
+          <t>2021-10-05 14:19:32.590557</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396502</t>
+          <t>2021-10-05 14:19:32.590559</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396505</t>
+          <t>2021-10-05 14:19:32.590561</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396508</t>
+          <t>2021-10-05 14:19:32.590563</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396511</t>
+          <t>2021-10-05 14:19:32.590565</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396513</t>
+          <t>2021-10-05 14:19:32.590567</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396516</t>
+          <t>2021-10-05 14:19:32.590570</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396519</t>
+          <t>2021-10-05 14:19:32.590573</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396521</t>
+          <t>2021-10-05 14:19:32.590576</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396524</t>
+          <t>2021-10-05 14:19:32.590578</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396527</t>
+          <t>2021-10-05 14:19:32.590580</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396530</t>
+          <t>2021-10-05 14:19:32.590582</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396532</t>
+          <t>2021-10-05 14:19:32.590584</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396535</t>
+          <t>2021-10-05 14:19:32.590586</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396537</t>
+          <t>2021-10-05 14:19:32.590588</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396540</t>
+          <t>2021-10-05 14:19:32.590590</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396543</t>
+          <t>2021-10-05 14:19:32.590592</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396545</t>
+          <t>2021-10-05 14:19:32.590594</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396548</t>
+          <t>2021-10-05 14:19:32.590597</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396551</t>
+          <t>2021-10-05 14:19:32.590599</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396554</t>
+          <t>2021-10-05 14:19:32.590601</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396556</t>
+          <t>2021-10-05 14:19:32.590603</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396559</t>
+          <t>2021-10-05 14:19:32.590605</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396562</t>
+          <t>2021-10-05 14:19:32.590607</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396565</t>
+          <t>2021-10-05 14:19:32.590610</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396568</t>
+          <t>2021-10-05 14:19:32.590612</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396571</t>
+          <t>2021-10-05 14:19:32.590614</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396573</t>
+          <t>2021-10-05 14:19:32.590616</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396576</t>
+          <t>2021-10-05 14:19:32.590620</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396579</t>
+          <t>2021-10-05 14:19:32.590622</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396582</t>
+          <t>2021-10-05 14:19:32.590625</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396584</t>
+          <t>2021-10-05 14:19:32.590627</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396587</t>
+          <t>2021-10-05 14:19:32.590629</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396592</t>
+          <t>2021-10-05 14:19:32.590639</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396595</t>
+          <t>2021-10-05 14:19:32.590642</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396598</t>
+          <t>2021-10-05 14:19:32.590654</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396601</t>
+          <t>2021-10-05 14:19:32.590657</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396604</t>
+          <t>2021-10-05 14:19:32.590659</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396606</t>
+          <t>2021-10-05 14:19:32.590661</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396609</t>
+          <t>2021-10-05 14:19:32.590663</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396612</t>
+          <t>2021-10-05 14:19:32.590665</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396615</t>
+          <t>2021-10-05 14:19:32.590667</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396617</t>
+          <t>2021-10-05 14:19:32.590670</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396620</t>
+          <t>2021-10-05 14:19:32.590672</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396623</t>
+          <t>2021-10-05 14:19:32.590674</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396626</t>
+          <t>2021-10-05 14:19:32.590676</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396628</t>
+          <t>2021-10-05 14:19:32.590678</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396631</t>
+          <t>2021-10-05 14:19:32.590681</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396634</t>
+          <t>2021-10-05 14:19:32.590683</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396637</t>
+          <t>2021-10-05 14:19:32.590685</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396639</t>
+          <t>2021-10-05 14:19:32.590687</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396642</t>
+          <t>2021-10-05 14:19:32.590689</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396645</t>
+          <t>2021-10-05 14:19:32.590691</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396648</t>
+          <t>2021-10-05 14:19:32.590693</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396650</t>
+          <t>2021-10-05 14:19:32.590696</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396653</t>
+          <t>2021-10-05 14:19:32.590698</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396656</t>
+          <t>2021-10-05 14:19:32.590700</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396659</t>
+          <t>2021-10-05 14:19:32.590702</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396662</t>
+          <t>2021-10-05 14:19:32.590705</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396665</t>
+          <t>2021-10-05 14:19:32.590707</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396667</t>
+          <t>2021-10-05 14:19:32.590709</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396670</t>
+          <t>2021-10-05 14:19:32.590711</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396672</t>
+          <t>2021-10-05 14:19:32.590713</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396675</t>
+          <t>2021-10-05 14:19:32.590716</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396678</t>
+          <t>2021-10-05 14:19:32.590718</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396681</t>
+          <t>2021-10-05 14:19:32.590720</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396683</t>
+          <t>2021-10-05 14:19:32.590722</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396686</t>
+          <t>2021-10-05 14:19:32.590724</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396690</t>
+          <t>2021-10-05 14:19:32.590726</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396692</t>
+          <t>2021-10-05 14:19:32.590728</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396695</t>
+          <t>2021-10-05 14:19:32.590730</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396698</t>
+          <t>2021-10-05 14:19:32.590732</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396701</t>
+          <t>2021-10-05 14:19:32.590734</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396704</t>
+          <t>2021-10-05 14:19:32.590736</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396706</t>
+          <t>2021-10-05 14:19:32.590738</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396709</t>
+          <t>2021-10-05 14:19:32.590741</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396712</t>
+          <t>2021-10-05 14:19:32.590743</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396715</t>
+          <t>2021-10-05 14:19:32.590745</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396717</t>
+          <t>2021-10-05 14:19:32.590747</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396720</t>
+          <t>2021-10-05 14:19:32.590749</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396723</t>
+          <t>2021-10-05 14:19:32.590751</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396726</t>
+          <t>2021-10-05 14:19:32.590753</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396729</t>
+          <t>2021-10-05 14:19:32.590756</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396731</t>
+          <t>2021-10-05 14:19:32.590758</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396734</t>
+          <t>2021-10-05 14:19:32.590760</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396737</t>
+          <t>2021-10-05 14:19:32.590762</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396740</t>
+          <t>2021-10-05 14:19:32.590764</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396743</t>
+          <t>2021-10-05 14:19:32.590767</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396745</t>
+          <t>2021-10-05 14:19:32.590768</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396749</t>
+          <t>2021-10-05 14:19:32.590773</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396753</t>
+          <t>2021-10-05 14:19:32.590776</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396755</t>
+          <t>2021-10-05 14:19:32.590778</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396758</t>
+          <t>2021-10-05 14:19:32.590780</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396761</t>
+          <t>2021-10-05 14:19:32.590782</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396764</t>
+          <t>2021-10-05 14:19:32.590784</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396767</t>
+          <t>2021-10-05 14:19:32.590786</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396769</t>
+          <t>2021-10-05 14:19:32.590789</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396772</t>
+          <t>2021-10-05 14:19:32.590791</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396775</t>
+          <t>2021-10-05 14:19:32.590793</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396777</t>
+          <t>2021-10-05 14:19:32.590795</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396780</t>
+          <t>2021-10-05 14:19:32.590798</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396783</t>
+          <t>2021-10-05 14:19:32.590800</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396785</t>
+          <t>2021-10-05 14:19:32.590802</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396788</t>
+          <t>2021-10-05 14:19:32.590804</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396791</t>
+          <t>2021-10-05 14:19:32.590806</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396794</t>
+          <t>2021-10-05 14:19:32.590809</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396796</t>
+          <t>2021-10-05 14:19:32.590811</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396799</t>
+          <t>2021-10-05 14:19:32.590813</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396802</t>
+          <t>2021-10-05 14:19:32.590815</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396805</t>
+          <t>2021-10-05 14:19:32.590817</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396808</t>
+          <t>2021-10-05 14:19:32.590819</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396810</t>
+          <t>2021-10-05 14:19:32.590822</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396813</t>
+          <t>2021-10-05 14:19:32.590824</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396816</t>
+          <t>2021-10-05 14:19:32.590826</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396818</t>
+          <t>2021-10-05 14:19:32.590829</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396821</t>
+          <t>2021-10-05 14:19:32.590831</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396824</t>
+          <t>2021-10-05 14:19:32.590833</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396827</t>
+          <t>2021-10-05 14:19:32.590835</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396829</t>
+          <t>2021-10-05 14:19:32.590837</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396832</t>
+          <t>2021-10-05 14:19:32.590839</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396835</t>
+          <t>2021-10-05 14:19:32.590841</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396837</t>
+          <t>2021-10-05 14:19:32.590843</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396840</t>
+          <t>2021-10-05 14:19:32.590845</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396843</t>
+          <t>2021-10-05 14:19:32.590847</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396846</t>
+          <t>2021-10-05 14:19:32.590850</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396848</t>
+          <t>2021-10-05 14:19:32.590852</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396851</t>
+          <t>2021-10-05 14:19:32.590854</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396854</t>
+          <t>2021-10-05 14:19:32.590856</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396856</t>
+          <t>2021-10-05 14:19:32.590858</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396859</t>
+          <t>2021-10-05 14:19:32.590860</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396862</t>
+          <t>2021-10-05 14:19:32.590862</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396865</t>
+          <t>2021-10-05 14:19:32.590864</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396868</t>
+          <t>2021-10-05 14:19:32.590867</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396871</t>
+          <t>2021-10-05 14:19:32.590869</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396873</t>
+          <t>2021-10-05 14:19:32.590871</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396876</t>
+          <t>2021-10-05 14:19:32.590873</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396878</t>
+          <t>2021-10-05 14:19:32.590875</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396881</t>
+          <t>2021-10-05 14:19:32.590877</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396884</t>
+          <t>2021-10-05 14:19:32.590879</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396886</t>
+          <t>2021-10-05 14:19:32.590882</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396889</t>
+          <t>2021-10-05 14:19:32.590884</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396892</t>
+          <t>2021-10-05 14:19:32.590886</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396894</t>
+          <t>2021-10-05 14:19:32.590888</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396897</t>
+          <t>2021-10-05 14:19:32.590890</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396900</t>
+          <t>2021-10-05 14:19:32.590892</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396903</t>
+          <t>2021-10-05 14:19:32.590894</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396905</t>
+          <t>2021-10-05 14:19:32.590896</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396908</t>
+          <t>2021-10-05 14:19:32.590899</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396911</t>
+          <t>2021-10-05 14:19:32.590901</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396913</t>
+          <t>2021-10-05 14:19:32.590903</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396916</t>
+          <t>2021-10-05 14:19:32.590905</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396919</t>
+          <t>2021-10-05 14:19:32.590907</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396922</t>
+          <t>2021-10-05 14:19:32.590909</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396925</t>
+          <t>2021-10-05 14:19:32.590913</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396928</t>
+          <t>2021-10-05 14:19:32.590916</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396931</t>
+          <t>2021-10-05 14:19:32.590918</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396934</t>
+          <t>2021-10-05 14:19:32.590920</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396936</t>
+          <t>2021-10-05 14:19:32.590922</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396939</t>
+          <t>2021-10-05 14:19:32.590925</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396942</t>
+          <t>2021-10-05 14:19:32.590927</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396944</t>
+          <t>2021-10-05 14:19:32.590929</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396947</t>
+          <t>2021-10-05 14:19:32.590931</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396950</t>
+          <t>2021-10-05 14:19:32.590933</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396952</t>
+          <t>2021-10-05 14:19:32.590936</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396955</t>
+          <t>2021-10-05 14:19:32.590938</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396958</t>
+          <t>2021-10-05 14:19:32.590940</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396960</t>
+          <t>2021-10-05 14:19:32.590942</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396963</t>
+          <t>2021-10-05 14:19:32.590944</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396965</t>
+          <t>2021-10-05 14:19:32.590946</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396968</t>
+          <t>2021-10-05 14:19:32.590948</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396971</t>
+          <t>2021-10-05 14:19:32.590950</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396973</t>
+          <t>2021-10-05 14:19:32.590953</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396976</t>
+          <t>2021-10-05 14:19:32.590955</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396979</t>
+          <t>2021-10-05 14:19:32.590957</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396982</t>
+          <t>2021-10-05 14:19:32.590959</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396985</t>
+          <t>2021-10-05 14:19:32.590961</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396987</t>
+          <t>2021-10-05 14:19:32.590963</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396990</t>
+          <t>2021-10-05 14:19:32.590966</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396993</t>
+          <t>2021-10-05 14:19:32.590968</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396995</t>
+          <t>2021-10-05 14:19:32.590972</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.396998</t>
+          <t>2021-10-05 14:19:32.590976</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397001</t>
+          <t>2021-10-05 14:19:32.590979</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397003</t>
+          <t>2021-10-05 14:19:32.590982</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397006</t>
+          <t>2021-10-05 14:19:32.590984</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397009</t>
+          <t>2021-10-05 14:19:32.590987</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397011</t>
+          <t>2021-10-05 14:19:32.590989</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397014</t>
+          <t>2021-10-05 14:19:32.590991</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397017</t>
+          <t>2021-10-05 14:19:32.590993</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397019</t>
+          <t>2021-10-05 14:19:32.590995</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397022</t>
+          <t>2021-10-05 14:19:32.590997</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397025</t>
+          <t>2021-10-05 14:19:32.590999</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397027</t>
+          <t>2021-10-05 14:19:32.591001</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397030</t>
+          <t>2021-10-05 14:19:32.591003</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397033</t>
+          <t>2021-10-05 14:19:32.591005</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397035</t>
+          <t>2021-10-05 14:19:32.591008</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397038</t>
+          <t>2021-10-05 14:19:32.591010</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397041</t>
+          <t>2021-10-05 14:19:32.591012</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397043</t>
+          <t>2021-10-05 14:19:32.591014</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397046</t>
+          <t>2021-10-05 14:19:32.591017</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397049</t>
+          <t>2021-10-05 14:19:32.591019</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397051</t>
+          <t>2021-10-05 14:19:32.591021</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397054</t>
+          <t>2021-10-05 14:19:32.591023</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397057</t>
+          <t>2021-10-05 14:19:32.591025</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397060</t>
+          <t>2021-10-05 14:19:32.591027</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397062</t>
+          <t>2021-10-05 14:19:32.591030</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397065</t>
+          <t>2021-10-05 14:19:32.591032</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397068</t>
+          <t>2021-10-05 14:19:32.591050</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397071</t>
+          <t>2021-10-05 14:19:32.591056</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397073</t>
+          <t>2021-10-05 14:19:32.591058</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397076</t>
+          <t>2021-10-05 14:19:32.591061</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397079</t>
+          <t>2021-10-05 14:19:32.591063</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397081</t>
+          <t>2021-10-05 14:19:32.591065</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397084</t>
+          <t>2021-10-05 14:19:32.591068</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397087</t>
+          <t>2021-10-05 14:19:32.591071</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397089</t>
+          <t>2021-10-05 14:19:32.591074</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397092</t>
+          <t>2021-10-05 14:19:32.591078</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397095</t>
+          <t>2021-10-05 14:19:32.591081</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397097</t>
+          <t>2021-10-05 14:19:32.591085</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397100</t>
+          <t>2021-10-05 14:19:32.591091</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397103</t>
+          <t>2021-10-05 14:19:32.591123</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397105</t>
+          <t>2021-10-05 14:19:32.591130</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397108</t>
+          <t>2021-10-05 14:19:32.591134</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397111</t>
+          <t>2021-10-05 14:19:32.591137</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397114</t>
+          <t>2021-10-05 14:19:32.591141</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397116</t>
+          <t>2021-10-05 14:19:32.591144</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397120</t>
+          <t>2021-10-05 14:19:32.591150</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397123</t>
+          <t>2021-10-05 14:19:32.591154</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397126</t>
+          <t>2021-10-05 14:19:32.591158</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397129</t>
+          <t>2021-10-05 14:19:32.591161</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397132</t>
+          <t>2021-10-05 14:19:32.591165</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397134</t>
+          <t>2021-10-05 14:19:32.591169</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18427,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397137</t>
+          <t>2021-10-05 14:19:32.591172</t>
         </is>
       </c>
     </row>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397140</t>
+          <t>2021-10-05 14:19:32.591174</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397142</t>
+          <t>2021-10-05 14:19:32.591176</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397145</t>
+          <t>2021-10-05 14:19:32.591178</t>
         </is>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397147</t>
+          <t>2021-10-05 14:19:32.591181</t>
         </is>
       </c>
     </row>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397150</t>
+          <t>2021-10-05 14:19:32.591183</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397153</t>
+          <t>2021-10-05 14:19:32.591185</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18637,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397155</t>
+          <t>2021-10-05 14:19:32.591187</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397158</t>
+          <t>2021-10-05 14:19:32.591218</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18697,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397161</t>
+          <t>2021-10-05 14:19:32.591242</t>
         </is>
       </c>
     </row>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397164</t>
+          <t>2021-10-05 14:19:32.591258</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397167</t>
+          <t>2021-10-05 14:19:32.591261</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397169</t>
+          <t>2021-10-05 14:19:32.591263</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397172</t>
+          <t>2021-10-05 14:19:32.591265</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18847,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397175</t>
+          <t>2021-10-05 14:19:32.591275</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18877,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397177</t>
+          <t>2021-10-05 14:19:32.591282</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397180</t>
+          <t>2021-10-05 14:19:32.591285</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397183</t>
+          <t>2021-10-05 14:19:32.591289</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18967,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397186</t>
+          <t>2021-10-05 14:19:32.591292</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397188</t>
+          <t>2021-10-05 14:19:32.591296</t>
         </is>
       </c>
     </row>
@@ -19026,7 +19027,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397191</t>
+          <t>2021-10-05 14:19:32.591299</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19057,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397194</t>
+          <t>2021-10-05 14:19:32.591302</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19087,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397196</t>
+          <t>2021-10-05 14:19:32.591306</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19117,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397199</t>
+          <t>2021-10-05 14:19:32.591310</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19147,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397202</t>
+          <t>2021-10-05 14:19:32.591314</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19177,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397204</t>
+          <t>2021-10-05 14:19:32.591317</t>
         </is>
       </c>
     </row>
@@ -19206,7 +19207,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397207</t>
+          <t>2021-10-05 14:19:32.591321</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397209</t>
+          <t>2021-10-05 14:19:32.591324</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19267,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397212</t>
+          <t>2021-10-05 14:19:32.591328</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19297,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397215</t>
+          <t>2021-10-05 14:19:32.591331</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19327,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397218</t>
+          <t>2021-10-05 14:19:32.591335</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19357,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397221</t>
+          <t>2021-10-05 14:19:32.591349</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19387,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397223</t>
+          <t>2021-10-05 14:19:32.591355</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397226</t>
+          <t>2021-10-05 14:19:32.591373</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19447,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397229</t>
+          <t>2021-10-05 14:19:32.591379</t>
         </is>
       </c>
     </row>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397231</t>
+          <t>2021-10-05 14:19:32.591382</t>
         </is>
       </c>
     </row>
@@ -19506,7 +19507,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397234</t>
+          <t>2021-10-05 14:19:32.591384</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19537,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397237</t>
+          <t>2021-10-05 14:19:32.591386</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19567,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397240</t>
+          <t>2021-10-05 14:19:32.591389</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397242</t>
+          <t>2021-10-05 14:19:32.591391</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397245</t>
+          <t>2021-10-05 14:19:32.591393</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397248</t>
+          <t>2021-10-05 14:19:32.591395</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397251</t>
+          <t>2021-10-05 14:19:32.591397</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397253</t>
+          <t>2021-10-05 14:19:32.591400</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397256</t>
+          <t>2021-10-05 14:19:32.591402</t>
         </is>
       </c>
     </row>
@@ -19776,7 +19777,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397259</t>
+          <t>2021-10-05 14:19:32.591404</t>
         </is>
       </c>
     </row>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397261</t>
+          <t>2021-10-05 14:19:32.591406</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19837,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397264</t>
+          <t>2021-10-05 14:19:32.591408</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397267</t>
+          <t>2021-10-05 14:19:32.591410</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19897,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397269</t>
+          <t>2021-10-05 14:19:32.591412</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19927,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397272</t>
+          <t>2021-10-05 14:19:32.591415</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19957,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397275</t>
+          <t>2021-10-05 14:19:32.591417</t>
         </is>
       </c>
     </row>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397278</t>
+          <t>2021-10-05 14:19:32.591419</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20017,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397280</t>
+          <t>2021-10-05 14:19:32.591421</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20047,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397283</t>
+          <t>2021-10-05 14:19:32.591423</t>
         </is>
       </c>
     </row>
@@ -20076,7 +20077,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397286</t>
+          <t>2021-10-05 14:19:32.591425</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20107,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397288</t>
+          <t>2021-10-05 14:19:32.591427</t>
         </is>
       </c>
     </row>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397291</t>
+          <t>2021-10-05 14:19:32.591430</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20167,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397294</t>
+          <t>2021-10-05 14:19:32.591432</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20197,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397296</t>
+          <t>2021-10-05 14:19:32.591434</t>
         </is>
       </c>
     </row>
@@ -20226,7 +20227,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397299</t>
+          <t>2021-10-05 14:19:32.591436</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20257,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397302</t>
+          <t>2021-10-05 14:19:32.591438</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20287,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397305</t>
+          <t>2021-10-05 14:19:32.591441</t>
         </is>
       </c>
     </row>
@@ -20316,7 +20317,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397308</t>
+          <t>2021-10-05 14:19:32.591443</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20347,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397310</t>
+          <t>2021-10-05 14:19:32.591445</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20377,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397313</t>
+          <t>2021-10-05 14:19:32.591447</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20407,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397316</t>
+          <t>2021-10-05 14:19:32.591449</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20437,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397319</t>
+          <t>2021-10-05 14:19:32.591451</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20467,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397322</t>
+          <t>2021-10-05 14:19:32.591453</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20497,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397324</t>
+          <t>2021-10-05 14:19:32.591455</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397327</t>
+          <t>2021-10-05 14:19:32.591458</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397330</t>
+          <t>2021-10-05 14:19:32.591460</t>
         </is>
       </c>
     </row>
@@ -20586,7 +20587,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397332</t>
+          <t>2021-10-05 14:19:32.591462</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20617,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397335</t>
+          <t>2021-10-05 14:19:32.591464</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20647,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397340</t>
+          <t>2021-10-05 14:19:32.591468</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20677,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397343</t>
+          <t>2021-10-05 14:19:32.591470</t>
         </is>
       </c>
     </row>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397346</t>
+          <t>2021-10-05 14:19:32.591473</t>
         </is>
       </c>
     </row>
@@ -20736,7 +20737,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397349</t>
+          <t>2021-10-05 14:19:32.591475</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20767,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397352</t>
+          <t>2021-10-05 14:19:32.591478</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20797,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397354</t>
+          <t>2021-10-05 14:19:32.591481</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20827,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397357</t>
+          <t>2021-10-05 14:19:32.591485</t>
         </is>
       </c>
     </row>
@@ -20856,7 +20857,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397360</t>
+          <t>2021-10-05 14:19:32.591488</t>
         </is>
       </c>
     </row>
@@ -20886,7 +20887,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397363</t>
+          <t>2021-10-05 14:19:32.591492</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20917,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397365</t>
+          <t>2021-10-05 14:19:32.591495</t>
         </is>
       </c>
     </row>
@@ -20946,7 +20947,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397368</t>
+          <t>2021-10-05 14:19:32.591499</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20977,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397371</t>
+          <t>2021-10-05 14:19:32.591502</t>
         </is>
       </c>
     </row>
@@ -21006,7 +21007,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397373</t>
+          <t>2021-10-05 14:19:32.591505</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21037,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397376</t>
+          <t>2021-10-05 14:19:32.591509</t>
         </is>
       </c>
     </row>
@@ -21066,7 +21067,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397379</t>
+          <t>2021-10-05 14:19:32.591513</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21097,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397381</t>
+          <t>2021-10-05 14:19:32.591516</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397384</t>
+          <t>2021-10-05 14:19:32.591520</t>
         </is>
       </c>
     </row>
@@ -21156,7 +21157,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397387</t>
+          <t>2021-10-05 14:19:32.591523</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21187,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397389</t>
+          <t>2021-10-05 14:19:32.591527</t>
         </is>
       </c>
     </row>
@@ -21216,7 +21217,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397392</t>
+          <t>2021-10-05 14:19:32.591531</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21247,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397394</t>
+          <t>2021-10-05 14:19:32.591534</t>
         </is>
       </c>
     </row>
@@ -21276,7 +21277,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397397</t>
+          <t>2021-10-05 14:19:32.591538</t>
         </is>
       </c>
     </row>
@@ -21306,7 +21307,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397400</t>
+          <t>2021-10-05 14:19:32.591542</t>
         </is>
       </c>
     </row>
@@ -21336,7 +21337,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397402</t>
+          <t>2021-10-05 14:19:32.591546</t>
         </is>
       </c>
     </row>
@@ -21366,7 +21367,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397405</t>
+          <t>2021-10-05 14:19:32.591550</t>
         </is>
       </c>
     </row>
@@ -21396,7 +21397,7 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397408</t>
+          <t>2021-10-05 14:19:32.591554</t>
         </is>
       </c>
     </row>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397411</t>
+          <t>2021-10-05 14:19:32.591558</t>
         </is>
       </c>
     </row>
@@ -21456,7 +21457,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397413</t>
+          <t>2021-10-05 14:19:32.591562</t>
         </is>
       </c>
     </row>
@@ -21486,7 +21487,7 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397416</t>
+          <t>2021-10-05 14:19:32.591566</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21517,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397418</t>
+          <t>2021-10-05 14:19:32.591570</t>
         </is>
       </c>
     </row>
@@ -21546,7 +21547,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397421</t>
+          <t>2021-10-05 14:19:32.591574</t>
         </is>
       </c>
     </row>
@@ -21576,7 +21577,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397424</t>
+          <t>2021-10-05 14:19:32.591578</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21607,7 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397426</t>
+          <t>2021-10-05 14:19:32.591582</t>
         </is>
       </c>
     </row>
@@ -21636,7 +21637,7 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397429</t>
+          <t>2021-10-05 14:19:32.591586</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21667,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397432</t>
+          <t>2021-10-05 14:19:32.591590</t>
         </is>
       </c>
     </row>
@@ -21696,7 +21697,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397434</t>
+          <t>2021-10-05 14:19:32.591594</t>
         </is>
       </c>
     </row>
@@ -21726,7 +21727,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397437</t>
+          <t>2021-10-05 14:19:32.591599</t>
         </is>
       </c>
     </row>
@@ -21756,7 +21757,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397440</t>
+          <t>2021-10-05 14:19:32.591602</t>
         </is>
       </c>
     </row>
@@ -21786,7 +21787,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397442</t>
+          <t>2021-10-05 14:19:32.591607</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21817,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397445</t>
+          <t>2021-10-05 14:19:32.591611</t>
         </is>
       </c>
     </row>
@@ -21846,7 +21847,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397448</t>
+          <t>2021-10-05 14:19:32.591615</t>
         </is>
       </c>
     </row>
@@ -21876,7 +21877,7 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397451</t>
+          <t>2021-10-05 14:19:32.591619</t>
         </is>
       </c>
     </row>
@@ -21906,7 +21907,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397453</t>
+          <t>2021-10-05 14:19:32.591623</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21937,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397456</t>
+          <t>2021-10-05 14:19:32.591627</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21967,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397459</t>
+          <t>2021-10-05 14:19:32.591631</t>
         </is>
       </c>
     </row>
@@ -21996,7 +21997,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397461</t>
+          <t>2021-10-05 14:19:32.591635</t>
         </is>
       </c>
     </row>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397464</t>
+          <t>2021-10-05 14:19:32.591640</t>
         </is>
       </c>
     </row>
@@ -22056,7 +22057,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397467</t>
+          <t>2021-10-05 14:19:32.591643</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22087,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397469</t>
+          <t>2021-10-05 14:19:32.591647</t>
         </is>
       </c>
     </row>
@@ -22116,7 +22117,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397472</t>
+          <t>2021-10-05 14:19:32.591650</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22147,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397474</t>
+          <t>2021-10-05 14:19:32.591652</t>
         </is>
       </c>
     </row>
@@ -22176,7 +22177,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397477</t>
+          <t>2021-10-05 14:19:32.591654</t>
         </is>
       </c>
     </row>
@@ -22206,7 +22207,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397480</t>
+          <t>2021-10-05 14:19:32.591656</t>
         </is>
       </c>
     </row>
@@ -22236,7 +22237,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397483</t>
+          <t>2021-10-05 14:19:32.591658</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22267,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397485</t>
+          <t>2021-10-05 14:19:32.591660</t>
         </is>
       </c>
     </row>
@@ -22296,7 +22297,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397488</t>
+          <t>2021-10-05 14:19:32.591662</t>
         </is>
       </c>
     </row>
@@ -22326,7 +22327,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397491</t>
+          <t>2021-10-05 14:19:32.591664</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22357,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397493</t>
+          <t>2021-10-05 14:19:32.591666</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22387,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397496</t>
+          <t>2021-10-05 14:19:32.591668</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22417,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397499</t>
+          <t>2021-10-05 14:19:32.591671</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22447,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397501</t>
+          <t>2021-10-05 14:19:32.591673</t>
         </is>
       </c>
     </row>
@@ -22476,7 +22477,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397504</t>
+          <t>2021-10-05 14:19:32.591675</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22507,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397507</t>
+          <t>2021-10-05 14:19:32.591677</t>
         </is>
       </c>
     </row>
@@ -22536,7 +22537,7 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397509</t>
+          <t>2021-10-05 14:19:32.591679</t>
         </is>
       </c>
     </row>
@@ -22566,7 +22567,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397512</t>
+          <t>2021-10-05 14:19:32.591682</t>
         </is>
       </c>
     </row>
@@ -22596,7 +22597,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397515</t>
+          <t>2021-10-05 14:19:32.591684</t>
         </is>
       </c>
     </row>
@@ -22626,7 +22627,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397518</t>
+          <t>2021-10-05 14:19:32.591686</t>
         </is>
       </c>
     </row>
@@ -22656,7 +22657,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397520</t>
+          <t>2021-10-05 14:19:32.591688</t>
         </is>
       </c>
     </row>
@@ -22686,7 +22687,7 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397523</t>
+          <t>2021-10-05 14:19:32.591690</t>
         </is>
       </c>
     </row>
@@ -22716,7 +22717,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397526</t>
+          <t>2021-10-05 14:19:32.591692</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22747,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397528</t>
+          <t>2021-10-05 14:19:32.591695</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22777,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397531</t>
+          <t>2021-10-05 14:19:32.591697</t>
         </is>
       </c>
     </row>
@@ -22806,7 +22807,7 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397534</t>
+          <t>2021-10-05 14:19:32.591699</t>
         </is>
       </c>
     </row>
@@ -22836,7 +22837,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397536</t>
+          <t>2021-10-05 14:19:32.591701</t>
         </is>
       </c>
     </row>
@@ -22866,7 +22867,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397539</t>
+          <t>2021-10-05 14:19:32.591703</t>
         </is>
       </c>
     </row>
@@ -22896,7 +22897,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397542</t>
+          <t>2021-10-05 14:19:32.591706</t>
         </is>
       </c>
     </row>
@@ -22926,7 +22927,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397545</t>
+          <t>2021-10-05 14:19:32.591708</t>
         </is>
       </c>
     </row>
@@ -22956,7 +22957,7 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397548</t>
+          <t>2021-10-05 14:19:32.591710</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22987,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397550</t>
+          <t>2021-10-05 14:19:32.591712</t>
         </is>
       </c>
     </row>
@@ -23016,7 +23017,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397553</t>
+          <t>2021-10-05 14:19:32.591714</t>
         </is>
       </c>
     </row>
@@ -23046,7 +23047,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397556</t>
+          <t>2021-10-05 14:19:32.591717</t>
         </is>
       </c>
     </row>
@@ -23076,7 +23077,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397558</t>
+          <t>2021-10-05 14:19:32.591719</t>
         </is>
       </c>
     </row>
@@ -23106,7 +23107,7 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397561</t>
+          <t>2021-10-05 14:19:32.591721</t>
         </is>
       </c>
     </row>
@@ -23136,7 +23137,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397564</t>
+          <t>2021-10-05 14:19:32.591723</t>
         </is>
       </c>
     </row>
@@ -23166,7 +23167,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397566</t>
+          <t>2021-10-05 14:19:32.591725</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23197,7 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397569</t>
+          <t>2021-10-05 14:19:32.591728</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23227,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397572</t>
+          <t>2021-10-05 14:19:32.591730</t>
         </is>
       </c>
     </row>
@@ -23256,7 +23257,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397574</t>
+          <t>2021-10-05 14:19:32.591732</t>
         </is>
       </c>
     </row>
@@ -23286,7 +23287,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397579</t>
+          <t>2021-10-05 14:19:32.591737</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23317,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397582</t>
+          <t>2021-10-05 14:19:32.591739</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23347,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397585</t>
+          <t>2021-10-05 14:19:32.591741</t>
         </is>
       </c>
     </row>
@@ -23376,7 +23377,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397588</t>
+          <t>2021-10-05 14:19:32.591743</t>
         </is>
       </c>
     </row>
@@ -23406,7 +23407,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397590</t>
+          <t>2021-10-05 14:19:32.591746</t>
         </is>
       </c>
     </row>
@@ -23436,7 +23437,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397593</t>
+          <t>2021-10-05 14:19:32.591748</t>
         </is>
       </c>
     </row>
@@ -23466,7 +23467,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397596</t>
+          <t>2021-10-05 14:19:32.591750</t>
         </is>
       </c>
     </row>
@@ -23496,7 +23497,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397598</t>
+          <t>2021-10-05 14:19:32.591753</t>
         </is>
       </c>
     </row>
@@ -23526,7 +23527,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397601</t>
+          <t>2021-10-05 14:19:32.591755</t>
         </is>
       </c>
     </row>
@@ -23556,7 +23557,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397604</t>
+          <t>2021-10-05 14:19:32.591757</t>
         </is>
       </c>
     </row>
@@ -23586,7 +23587,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397607</t>
+          <t>2021-10-05 14:19:32.591759</t>
         </is>
       </c>
     </row>
@@ -23616,7 +23617,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397609</t>
+          <t>2021-10-05 14:19:32.591761</t>
         </is>
       </c>
     </row>
@@ -23646,7 +23647,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397612</t>
+          <t>2021-10-05 14:19:32.591763</t>
         </is>
       </c>
     </row>
@@ -23676,7 +23677,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397614</t>
+          <t>2021-10-05 14:19:32.591766</t>
         </is>
       </c>
     </row>
@@ -23706,7 +23707,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397617</t>
+          <t>2021-10-05 14:19:32.591768</t>
         </is>
       </c>
     </row>
@@ -23736,7 +23737,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397620</t>
+          <t>2021-10-05 14:19:32.591770</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23767,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397623</t>
+          <t>2021-10-05 14:19:32.591772</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23797,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397625</t>
+          <t>2021-10-05 14:19:32.591774</t>
         </is>
       </c>
     </row>
@@ -23826,7 +23827,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397628</t>
+          <t>2021-10-05 14:19:32.591776</t>
         </is>
       </c>
     </row>
@@ -23856,7 +23857,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397631</t>
+          <t>2021-10-05 14:19:32.591778</t>
         </is>
       </c>
     </row>
@@ -23886,7 +23887,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397634</t>
+          <t>2021-10-05 14:19:32.591781</t>
         </is>
       </c>
     </row>
@@ -23916,7 +23917,7 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397636</t>
+          <t>2021-10-05 14:19:32.591783</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23947,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397639</t>
+          <t>2021-10-05 14:19:32.591785</t>
         </is>
       </c>
     </row>
@@ -23976,7 +23977,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397642</t>
+          <t>2021-10-05 14:19:32.591787</t>
         </is>
       </c>
     </row>
@@ -24006,7 +24007,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397644</t>
+          <t>2021-10-05 14:19:32.591789</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24037,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397647</t>
+          <t>2021-10-05 14:19:32.591791</t>
         </is>
       </c>
     </row>
@@ -24066,7 +24067,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397650</t>
+          <t>2021-10-05 14:19:32.591793</t>
         </is>
       </c>
     </row>
@@ -24096,7 +24097,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397652</t>
+          <t>2021-10-05 14:19:32.591796</t>
         </is>
       </c>
     </row>
@@ -24126,7 +24127,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397655</t>
+          <t>2021-10-05 14:19:32.591798</t>
         </is>
       </c>
     </row>
@@ -24156,7 +24157,7 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397658</t>
+          <t>2021-10-05 14:19:32.591800</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24187,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397660</t>
+          <t>2021-10-05 14:19:32.591802</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24217,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397663</t>
+          <t>2021-10-05 14:19:32.591804</t>
         </is>
       </c>
     </row>
@@ -24246,7 +24247,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397666</t>
+          <t>2021-10-05 14:19:32.591806</t>
         </is>
       </c>
     </row>
@@ -24276,7 +24277,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397668</t>
+          <t>2021-10-05 14:19:32.591808</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24307,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397671</t>
+          <t>2021-10-05 14:19:32.591810</t>
         </is>
       </c>
     </row>
@@ -24336,7 +24337,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397674</t>
+          <t>2021-10-05 14:19:32.591813</t>
         </is>
       </c>
     </row>
@@ -24366,7 +24367,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397676</t>
+          <t>2021-10-05 14:19:32.591815</t>
         </is>
       </c>
     </row>
@@ -24396,7 +24397,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397679</t>
+          <t>2021-10-05 14:19:32.591817</t>
         </is>
       </c>
     </row>
@@ -24426,7 +24427,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397681</t>
+          <t>2021-10-05 14:19:32.591819</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24457,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397684</t>
+          <t>2021-10-05 14:19:32.591821</t>
         </is>
       </c>
     </row>
@@ -24486,7 +24487,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397687</t>
+          <t>2021-10-05 14:19:32.591823</t>
         </is>
       </c>
     </row>
@@ -24516,7 +24517,7 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397690</t>
+          <t>2021-10-05 14:19:32.591825</t>
         </is>
       </c>
     </row>
@@ -24546,7 +24547,7 @@
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397692</t>
+          <t>2021-10-05 14:19:32.591827</t>
         </is>
       </c>
     </row>
@@ -24576,7 +24577,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397695</t>
+          <t>2021-10-05 14:19:32.591829</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24607,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397697</t>
+          <t>2021-10-05 14:19:32.591831</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24637,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397700</t>
+          <t>2021-10-05 14:19:32.591833</t>
         </is>
       </c>
     </row>
@@ -24666,7 +24667,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397703</t>
+          <t>2021-10-05 14:19:32.591835</t>
         </is>
       </c>
     </row>
@@ -24696,7 +24697,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397705</t>
+          <t>2021-10-05 14:19:32.591838</t>
         </is>
       </c>
     </row>
@@ -24726,7 +24727,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397708</t>
+          <t>2021-10-05 14:19:32.591840</t>
         </is>
       </c>
     </row>
@@ -24756,7 +24757,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397711</t>
+          <t>2021-10-05 14:19:32.591842</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24787,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397713</t>
+          <t>2021-10-05 14:19:32.591844</t>
         </is>
       </c>
     </row>
@@ -24816,7 +24817,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397716</t>
+          <t>2021-10-05 14:19:32.591847</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24847,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397719</t>
+          <t>2021-10-05 14:19:32.591850</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24877,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397721</t>
+          <t>2021-10-05 14:19:32.591854</t>
         </is>
       </c>
     </row>
@@ -24906,7 +24907,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397724</t>
+          <t>2021-10-05 14:19:32.591857</t>
         </is>
       </c>
     </row>
@@ -24936,7 +24937,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397726</t>
+          <t>2021-10-05 14:19:32.591859</t>
         </is>
       </c>
     </row>
@@ -24966,7 +24967,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397729</t>
+          <t>2021-10-05 14:19:32.591861</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24997,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397732</t>
+          <t>2021-10-05 14:19:32.591863</t>
         </is>
       </c>
     </row>
@@ -25026,7 +25027,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397734</t>
+          <t>2021-10-05 14:19:32.591865</t>
         </is>
       </c>
     </row>
@@ -25056,7 +25057,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397737</t>
+          <t>2021-10-05 14:19:32.591867</t>
         </is>
       </c>
     </row>
@@ -25086,7 +25087,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397740</t>
+          <t>2021-10-05 14:19:32.591869</t>
         </is>
       </c>
     </row>
@@ -25116,7 +25117,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397742</t>
+          <t>2021-10-05 14:19:32.591871</t>
         </is>
       </c>
     </row>
@@ -25146,7 +25147,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397745</t>
+          <t>2021-10-05 14:19:32.591873</t>
         </is>
       </c>
     </row>
@@ -25176,7 +25177,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397748</t>
+          <t>2021-10-05 14:19:32.591875</t>
         </is>
       </c>
     </row>
@@ -25206,7 +25207,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397751</t>
+          <t>2021-10-05 14:19:32.591877</t>
         </is>
       </c>
     </row>
@@ -25236,7 +25237,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397753</t>
+          <t>2021-10-05 14:19:32.591879</t>
         </is>
       </c>
     </row>
@@ -25266,7 +25267,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397756</t>
+          <t>2021-10-05 14:19:32.591882</t>
         </is>
       </c>
     </row>
@@ -25296,7 +25297,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397759</t>
+          <t>2021-10-05 14:19:32.591884</t>
         </is>
       </c>
     </row>
@@ -25326,7 +25327,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397762</t>
+          <t>2021-10-05 14:19:32.591886</t>
         </is>
       </c>
     </row>
@@ -25356,7 +25357,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397764</t>
+          <t>2021-10-05 14:19:32.591888</t>
         </is>
       </c>
     </row>
@@ -25386,7 +25387,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397767</t>
+          <t>2021-10-05 14:19:32.591891</t>
         </is>
       </c>
     </row>
@@ -25416,7 +25417,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397770</t>
+          <t>2021-10-05 14:19:32.591893</t>
         </is>
       </c>
     </row>
@@ -25446,7 +25447,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397772</t>
+          <t>2021-10-05 14:19:32.591895</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25477,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397775</t>
+          <t>2021-10-05 14:19:32.591897</t>
         </is>
       </c>
     </row>
@@ -25506,7 +25507,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397777</t>
+          <t>2021-10-05 14:19:32.591899</t>
         </is>
       </c>
     </row>
@@ -25536,7 +25537,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397780</t>
+          <t>2021-10-05 14:19:32.591902</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25567,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397783</t>
+          <t>2021-10-05 14:19:32.591904</t>
         </is>
       </c>
     </row>
@@ -25596,7 +25597,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397785</t>
+          <t>2021-10-05 14:19:32.591906</t>
         </is>
       </c>
     </row>
@@ -25626,7 +25627,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397788</t>
+          <t>2021-10-05 14:19:32.591908</t>
         </is>
       </c>
     </row>
@@ -25656,7 +25657,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397791</t>
+          <t>2021-10-05 14:19:32.591910</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25687,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397793</t>
+          <t>2021-10-05 14:19:32.591912</t>
         </is>
       </c>
     </row>
@@ -25716,7 +25717,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397796</t>
+          <t>2021-10-05 14:19:32.591915</t>
         </is>
       </c>
     </row>
@@ -25746,7 +25747,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397799</t>
+          <t>2021-10-05 14:19:32.591917</t>
         </is>
       </c>
     </row>
@@ -25776,7 +25777,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397801</t>
+          <t>2021-10-05 14:19:32.591921</t>
         </is>
       </c>
     </row>
@@ -25806,7 +25807,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397804</t>
+          <t>2021-10-05 14:19:32.591923</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25837,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397807</t>
+          <t>2021-10-05 14:19:32.591936</t>
         </is>
       </c>
     </row>
@@ -25866,7 +25867,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397809</t>
+          <t>2021-10-05 14:19:32.591955</t>
         </is>
       </c>
     </row>
@@ -25896,7 +25897,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397812</t>
+          <t>2021-10-05 14:19:32.591961</t>
         </is>
       </c>
     </row>
@@ -25926,7 +25927,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397815</t>
+          <t>2021-10-05 14:19:32.591964</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25957,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397817</t>
+          <t>2021-10-05 14:19:32.591966</t>
         </is>
       </c>
     </row>
@@ -25986,7 +25987,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397820</t>
+          <t>2021-10-05 14:19:32.591968</t>
         </is>
       </c>
     </row>
@@ -26016,7 +26017,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397823</t>
+          <t>2021-10-05 14:19:32.591971</t>
         </is>
       </c>
     </row>
@@ -26046,7 +26047,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397825</t>
+          <t>2021-10-05 14:19:32.591983</t>
         </is>
       </c>
     </row>
@@ -26076,7 +26077,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397828</t>
+          <t>2021-10-05 14:19:32.591986</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26107,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397831</t>
+          <t>2021-10-05 14:19:32.591988</t>
         </is>
       </c>
     </row>
@@ -26136,7 +26137,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397834</t>
+          <t>2021-10-05 14:19:32.591990</t>
         </is>
       </c>
     </row>
@@ -26166,7 +26167,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397837</t>
+          <t>2021-10-05 14:19:32.591992</t>
         </is>
       </c>
     </row>
@@ -26196,7 +26197,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397839</t>
+          <t>2021-10-05 14:19:32.591994</t>
         </is>
       </c>
     </row>
@@ -26226,7 +26227,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397842</t>
+          <t>2021-10-05 14:19:32.591996</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26257,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397844</t>
+          <t>2021-10-05 14:19:32.591999</t>
         </is>
       </c>
     </row>
@@ -26286,7 +26287,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397848</t>
+          <t>2021-10-05 14:19:32.592007</t>
         </is>
       </c>
     </row>
@@ -26316,7 +26317,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397852</t>
+          <t>2021-10-05 14:19:32.592010</t>
         </is>
       </c>
     </row>
@@ -26346,7 +26347,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397855</t>
+          <t>2021-10-05 14:19:32.592012</t>
         </is>
       </c>
     </row>
@@ -26376,7 +26377,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397858</t>
+          <t>2021-10-05 14:19:32.592015</t>
         </is>
       </c>
     </row>
@@ -26406,7 +26407,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397860</t>
+          <t>2021-10-05 14:19:32.592017</t>
         </is>
       </c>
     </row>
@@ -26436,7 +26437,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397863</t>
+          <t>2021-10-05 14:19:32.592019</t>
         </is>
       </c>
     </row>
@@ -26466,7 +26467,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397865</t>
+          <t>2021-10-05 14:19:32.592021</t>
         </is>
       </c>
     </row>
@@ -26496,7 +26497,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397868</t>
+          <t>2021-10-05 14:19:32.592023</t>
         </is>
       </c>
     </row>
@@ -26526,7 +26527,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397871</t>
+          <t>2021-10-05 14:19:32.592026</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26557,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397874</t>
+          <t>2021-10-05 14:19:32.592028</t>
         </is>
       </c>
     </row>
@@ -26586,7 +26587,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397877</t>
+          <t>2021-10-05 14:19:32.592030</t>
         </is>
       </c>
     </row>
@@ -26616,7 +26617,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397879</t>
+          <t>2021-10-05 14:19:32.592032</t>
         </is>
       </c>
     </row>
@@ -26646,7 +26647,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397882</t>
+          <t>2021-10-05 14:19:32.592034</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26677,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397885</t>
+          <t>2021-10-05 14:19:32.592036</t>
         </is>
       </c>
     </row>
@@ -26706,7 +26707,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397887</t>
+          <t>2021-10-05 14:19:32.592039</t>
         </is>
       </c>
     </row>
@@ -26736,7 +26737,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397890</t>
+          <t>2021-10-05 14:19:32.592041</t>
         </is>
       </c>
     </row>
@@ -26766,7 +26767,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397893</t>
+          <t>2021-10-05 14:19:32.592043</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26797,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397895</t>
+          <t>2021-10-05 14:19:32.592045</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26827,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397898</t>
+          <t>2021-10-05 14:19:32.592047</t>
         </is>
       </c>
     </row>
@@ -26856,7 +26857,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397900</t>
+          <t>2021-10-05 14:19:32.592049</t>
         </is>
       </c>
     </row>
@@ -26886,7 +26887,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397903</t>
+          <t>2021-10-05 14:19:32.592051</t>
         </is>
       </c>
     </row>
@@ -26916,7 +26917,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397906</t>
+          <t>2021-10-05 14:19:32.592054</t>
         </is>
       </c>
     </row>
@@ -26946,7 +26947,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397908</t>
+          <t>2021-10-05 14:19:32.592056</t>
         </is>
       </c>
     </row>
@@ -26976,7 +26977,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397911</t>
+          <t>2021-10-05 14:19:32.592058</t>
         </is>
       </c>
     </row>
@@ -27006,7 +27007,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397914</t>
+          <t>2021-10-05 14:19:32.592061</t>
         </is>
       </c>
     </row>
@@ -27036,7 +27037,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397916</t>
+          <t>2021-10-05 14:19:32.592063</t>
         </is>
       </c>
     </row>
@@ -27066,7 +27067,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397919</t>
+          <t>2021-10-05 14:19:32.592065</t>
         </is>
       </c>
     </row>
@@ -27096,7 +27097,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397922</t>
+          <t>2021-10-05 14:19:32.592082</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27127,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397925</t>
+          <t>2021-10-05 14:19:32.592085</t>
         </is>
       </c>
     </row>
@@ -27156,7 +27157,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397928</t>
+          <t>2021-10-05 14:19:32.592087</t>
         </is>
       </c>
     </row>
@@ -27186,7 +27187,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397930</t>
+          <t>2021-10-05 14:19:32.592089</t>
         </is>
       </c>
     </row>
@@ -27216,7 +27217,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397933</t>
+          <t>2021-10-05 14:19:32.592091</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27247,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397936</t>
+          <t>2021-10-05 14:19:32.592094</t>
         </is>
       </c>
     </row>
@@ -27276,7 +27277,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397938</t>
+          <t>2021-10-05 14:19:32.592096</t>
         </is>
       </c>
     </row>
@@ -27306,7 +27307,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397941</t>
+          <t>2021-10-05 14:19:32.592098</t>
         </is>
       </c>
     </row>
@@ -27336,7 +27337,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397944</t>
+          <t>2021-10-05 14:19:32.592100</t>
         </is>
       </c>
     </row>
@@ -27366,7 +27367,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397946</t>
+          <t>2021-10-05 14:19:32.592102</t>
         </is>
       </c>
     </row>
@@ -27396,7 +27397,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397949</t>
+          <t>2021-10-05 14:19:32.592104</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27427,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397952</t>
+          <t>2021-10-05 14:19:32.592106</t>
         </is>
       </c>
     </row>
@@ -27456,7 +27457,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397955</t>
+          <t>2021-10-05 14:19:32.592109</t>
         </is>
       </c>
     </row>
@@ -27486,7 +27487,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397957</t>
+          <t>2021-10-05 14:19:32.592111</t>
         </is>
       </c>
     </row>
@@ -27516,7 +27517,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397960</t>
+          <t>2021-10-05 14:19:32.592113</t>
         </is>
       </c>
     </row>
@@ -27546,7 +27547,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397963</t>
+          <t>2021-10-05 14:19:32.592115</t>
         </is>
       </c>
     </row>
@@ -27576,7 +27577,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397965</t>
+          <t>2021-10-05 14:19:32.592117</t>
         </is>
       </c>
     </row>
@@ -27606,7 +27607,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397968</t>
+          <t>2021-10-05 14:19:32.592120</t>
         </is>
       </c>
     </row>
@@ -27636,7 +27637,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397971</t>
+          <t>2021-10-05 14:19:32.592122</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27667,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397973</t>
+          <t>2021-10-05 14:19:32.592124</t>
         </is>
       </c>
     </row>
@@ -27696,7 +27697,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397976</t>
+          <t>2021-10-05 14:19:32.592126</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27727,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397978</t>
+          <t>2021-10-05 14:19:32.592128</t>
         </is>
       </c>
     </row>
@@ -27756,7 +27757,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397981</t>
+          <t>2021-10-05 14:19:32.592130</t>
         </is>
       </c>
     </row>
@@ -27786,7 +27787,7 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397984</t>
+          <t>2021-10-05 14:19:32.592133</t>
         </is>
       </c>
     </row>
@@ -27816,7 +27817,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397986</t>
+          <t>2021-10-05 14:19:32.592135</t>
         </is>
       </c>
     </row>
@@ -27846,7 +27847,7 @@
       </c>
       <c r="F914" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397989</t>
+          <t>2021-10-05 14:19:32.592137</t>
         </is>
       </c>
     </row>
@@ -27876,7 +27877,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397992</t>
+          <t>2021-10-05 14:19:32.592139</t>
         </is>
       </c>
     </row>
@@ -27906,7 +27907,7 @@
       </c>
       <c r="F916" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397994</t>
+          <t>2021-10-05 14:19:32.592141</t>
         </is>
       </c>
     </row>
@@ -27936,7 +27937,7 @@
       </c>
       <c r="F917" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.397997</t>
+          <t>2021-10-05 14:19:32.592143</t>
         </is>
       </c>
     </row>
@@ -27966,7 +27967,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398000</t>
+          <t>2021-10-05 14:19:32.592145</t>
         </is>
       </c>
     </row>
@@ -27996,7 +27997,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398002</t>
+          <t>2021-10-05 14:19:32.592148</t>
         </is>
       </c>
     </row>
@@ -28026,7 +28027,7 @@
       </c>
       <c r="F920" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398005</t>
+          <t>2021-10-05 14:19:32.592150</t>
         </is>
       </c>
     </row>
@@ -28056,7 +28057,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398008</t>
+          <t>2021-10-05 14:19:32.592152</t>
         </is>
       </c>
     </row>
@@ -28086,7 +28087,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398011</t>
+          <t>2021-10-05 14:19:32.592154</t>
         </is>
       </c>
     </row>
@@ -28116,7 +28117,7 @@
       </c>
       <c r="F923" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398013</t>
+          <t>2021-10-05 14:19:32.592156</t>
         </is>
       </c>
     </row>
@@ -28146,7 +28147,7 @@
       </c>
       <c r="F924" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398016</t>
+          <t>2021-10-05 14:19:32.592159</t>
         </is>
       </c>
     </row>
@@ -28176,7 +28177,7 @@
       </c>
       <c r="F925" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398019</t>
+          <t>2021-10-05 14:19:32.592161</t>
         </is>
       </c>
     </row>
@@ -28206,7 +28207,7 @@
       </c>
       <c r="F926" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398022</t>
+          <t>2021-10-05 14:19:32.592163</t>
         </is>
       </c>
     </row>
@@ -28236,7 +28237,7 @@
       </c>
       <c r="F927" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398024</t>
+          <t>2021-10-05 14:19:32.592165</t>
         </is>
       </c>
     </row>
@@ -28266,7 +28267,7 @@
       </c>
       <c r="F928" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398027</t>
+          <t>2021-10-05 14:19:32.592167</t>
         </is>
       </c>
     </row>
@@ -28296,7 +28297,7 @@
       </c>
       <c r="F929" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398030</t>
+          <t>2021-10-05 14:19:32.592169</t>
         </is>
       </c>
     </row>
@@ -28326,7 +28327,7 @@
       </c>
       <c r="F930" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398032</t>
+          <t>2021-10-05 14:19:32.592171</t>
         </is>
       </c>
     </row>
@@ -28356,7 +28357,7 @@
       </c>
       <c r="F931" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398035</t>
+          <t>2021-10-05 14:19:32.592174</t>
         </is>
       </c>
     </row>
@@ -28386,7 +28387,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398038</t>
+          <t>2021-10-05 14:19:32.592176</t>
         </is>
       </c>
     </row>
@@ -28416,7 +28417,7 @@
       </c>
       <c r="F933" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398040</t>
+          <t>2021-10-05 14:19:32.592178</t>
         </is>
       </c>
     </row>
@@ -28446,7 +28447,7 @@
       </c>
       <c r="F934" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398043</t>
+          <t>2021-10-05 14:19:32.592180</t>
         </is>
       </c>
     </row>
@@ -28476,7 +28477,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398046</t>
+          <t>2021-10-05 14:19:32.592182</t>
         </is>
       </c>
     </row>
@@ -28506,7 +28507,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398048</t>
+          <t>2021-10-05 14:19:32.592184</t>
         </is>
       </c>
     </row>
@@ -28536,7 +28537,7 @@
       </c>
       <c r="F937" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398051</t>
+          <t>2021-10-05 14:19:32.592187</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28567,7 @@
       </c>
       <c r="F938" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398054</t>
+          <t>2021-10-05 14:19:32.592189</t>
         </is>
       </c>
     </row>
@@ -28596,7 +28597,7 @@
       </c>
       <c r="F939" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398056</t>
+          <t>2021-10-05 14:19:32.592191</t>
         </is>
       </c>
     </row>
@@ -28626,7 +28627,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398059</t>
+          <t>2021-10-05 14:19:32.592193</t>
         </is>
       </c>
     </row>
@@ -28656,7 +28657,7 @@
       </c>
       <c r="F941" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398062</t>
+          <t>2021-10-05 14:19:32.592196</t>
         </is>
       </c>
     </row>
@@ -28686,7 +28687,7 @@
       </c>
       <c r="F942" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398064</t>
+          <t>2021-10-05 14:19:32.592198</t>
         </is>
       </c>
     </row>
@@ -28716,7 +28717,7 @@
       </c>
       <c r="F943" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398067</t>
+          <t>2021-10-05 14:19:32.592200</t>
         </is>
       </c>
     </row>
@@ -28746,7 +28747,7 @@
       </c>
       <c r="F944" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398070</t>
+          <t>2021-10-05 14:19:32.592202</t>
         </is>
       </c>
     </row>
@@ -28776,7 +28777,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398072</t>
+          <t>2021-10-05 14:19:32.592204</t>
         </is>
       </c>
     </row>
@@ -28806,7 +28807,7 @@
       </c>
       <c r="F946" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398075</t>
+          <t>2021-10-05 14:19:32.592206</t>
         </is>
       </c>
     </row>
@@ -28836,7 +28837,7 @@
       </c>
       <c r="F947" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398078</t>
+          <t>2021-10-05 14:19:32.592208</t>
         </is>
       </c>
     </row>
@@ -28866,7 +28867,7 @@
       </c>
       <c r="F948" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398080</t>
+          <t>2021-10-05 14:19:32.592210</t>
         </is>
       </c>
     </row>
@@ -28896,7 +28897,7 @@
       </c>
       <c r="F949" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398083</t>
+          <t>2021-10-05 14:19:32.592212</t>
         </is>
       </c>
     </row>
@@ -28926,7 +28927,7 @@
       </c>
       <c r="F950" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398085</t>
+          <t>2021-10-05 14:19:32.592214</t>
         </is>
       </c>
     </row>
@@ -28956,7 +28957,7 @@
       </c>
       <c r="F951" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398088</t>
+          <t>2021-10-05 14:19:32.592216</t>
         </is>
       </c>
     </row>
@@ -28986,7 +28987,7 @@
       </c>
       <c r="F952" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398091</t>
+          <t>2021-10-05 14:19:32.592218</t>
         </is>
       </c>
     </row>
@@ -29016,7 +29017,7 @@
       </c>
       <c r="F953" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398093</t>
+          <t>2021-10-05 14:19:32.592220</t>
         </is>
       </c>
     </row>
@@ -29046,7 +29047,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398096</t>
+          <t>2021-10-05 14:19:32.592224</t>
         </is>
       </c>
     </row>
@@ -29076,7 +29077,7 @@
       </c>
       <c r="F955" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398098</t>
+          <t>2021-10-05 14:19:32.592227</t>
         </is>
       </c>
     </row>
@@ -29106,7 +29107,7 @@
       </c>
       <c r="F956" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398101</t>
+          <t>2021-10-05 14:19:32.592230</t>
         </is>
       </c>
     </row>
@@ -29136,7 +29137,7 @@
       </c>
       <c r="F957" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398104</t>
+          <t>2021-10-05 14:19:32.592232</t>
         </is>
       </c>
     </row>
@@ -29166,7 +29167,7 @@
       </c>
       <c r="F958" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398106</t>
+          <t>2021-10-05 14:19:32.592234</t>
         </is>
       </c>
     </row>
@@ -29196,7 +29197,7 @@
       </c>
       <c r="F959" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398109</t>
+          <t>2021-10-05 14:19:32.592237</t>
         </is>
       </c>
     </row>
@@ -29226,7 +29227,7 @@
       </c>
       <c r="F960" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398111</t>
+          <t>2021-10-05 14:19:32.592239</t>
         </is>
       </c>
     </row>
@@ -29256,7 +29257,7 @@
       </c>
       <c r="F961" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398114</t>
+          <t>2021-10-05 14:19:32.592241</t>
         </is>
       </c>
     </row>
@@ -29286,7 +29287,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398117</t>
+          <t>2021-10-05 14:19:32.592243</t>
         </is>
       </c>
     </row>
@@ -29316,7 +29317,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398119</t>
+          <t>2021-10-05 14:19:32.592245</t>
         </is>
       </c>
     </row>
@@ -29346,7 +29347,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398122</t>
+          <t>2021-10-05 14:19:32.592247</t>
         </is>
       </c>
     </row>
@@ -29376,7 +29377,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398125</t>
+          <t>2021-10-05 14:19:32.592249</t>
         </is>
       </c>
     </row>
@@ -29406,7 +29407,91 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>2021-10-05 13:39:02.398127</t>
+          <t>2021-10-05 14:19:32.592252</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Childhood onset dystonia or chorea or related movement disorder</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>847</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.157</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-28T15:39:52.134520Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:19:32.587090</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/847/?format=json</t>
         </is>
       </c>
     </row>
